--- a/jsf2-primefaces-spring/src/main/resources/excel/role.xlsx
+++ b/jsf2-primefaces-spring/src/main/resources/excel/role.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>${msg.getProperty('role_id')}</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>${msg.getProperty('search_criteria')}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('search_full_text')}</t>
+  </si>
+  <si>
+    <t>${search_full_text}</t>
   </si>
   <si>
     <t>${roleName}</t>
@@ -468,10 +474,18 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/jsf2-primefaces-spring/src/main/resources/excel/role.xlsx
+++ b/jsf2-primefaces-spring/src/main/resources/excel/role.xlsx
@@ -20,43 +20,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
+    <t>${msg.getProperty('role_roleName')}</t>
+  </si>
+  <si>
+    <t>${role.roleName}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('search_date')}</t>
+  </si>
+  <si>
+    <t>${search_date}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('search_by')}</t>
+  </si>
+  <si>
+    <t>${search_by}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('search_nb_results')}</t>
+  </si>
+  <si>
+    <t>${search_nb_results}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('search_criteria')}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('search_full_text')}</t>
+  </si>
+  <si>
+    <t>${search_full_text}</t>
+  </si>
+  <si>
     <t>${msg.getProperty('role_id')}</t>
   </si>
   <si>
-    <t>${role.id}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('role_roleName')}</t>
-  </si>
-  <si>
-    <t>${role.roleName}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('search_date')}</t>
-  </si>
-  <si>
-    <t>${search_date}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('search_by')}</t>
-  </si>
-  <si>
-    <t>${search_by}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('search_nb_results')}</t>
-  </si>
-  <si>
-    <t>${search_nb_results}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('search_criteria')}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('search_full_text')}</t>
-  </si>
-  <si>
-    <t>${search_full_text}</t>
+    <t>${id}</t>
   </si>
   <si>
     <t>${roleName}</t>
@@ -418,16 +418,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -447,44 +441,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
